--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.0097985946397</v>
+        <v>523.7361324233798</v>
       </c>
       <c r="AB2" t="n">
-        <v>515.8414389356383</v>
+        <v>716.5988819891196</v>
       </c>
       <c r="AC2" t="n">
-        <v>466.6102559916268</v>
+        <v>648.2076904449248</v>
       </c>
       <c r="AD2" t="n">
-        <v>377009.7985946398</v>
+        <v>523736.1324233797</v>
       </c>
       <c r="AE2" t="n">
-        <v>515841.4389356383</v>
+        <v>716598.8819891196</v>
       </c>
       <c r="AF2" t="n">
         <v>5.371883270646244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>466610.2559916268</v>
+        <v>648207.6904449248</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>293.9598582319115</v>
+        <v>421.1423039088785</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.2088466265702</v>
+        <v>576.2254796953024</v>
       </c>
       <c r="AC3" t="n">
-        <v>363.8225988081912</v>
+        <v>521.2313286507222</v>
       </c>
       <c r="AD3" t="n">
-        <v>293959.8582319115</v>
+        <v>421142.3039088785</v>
       </c>
       <c r="AE3" t="n">
-        <v>402208.8466265702</v>
+        <v>576225.4796953024</v>
       </c>
       <c r="AF3" t="n">
         <v>6.598247619650629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>363822.5988081912</v>
+        <v>521231.3286507222</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.163260385359</v>
+        <v>383.7696745514864</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.8587563224317</v>
+        <v>525.0905994444754</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.7964469471133</v>
+        <v>474.9766896027788</v>
       </c>
       <c r="AD4" t="n">
-        <v>276163.2603853589</v>
+        <v>383769.6745514864</v>
       </c>
       <c r="AE4" t="n">
-        <v>377858.7563224317</v>
+        <v>525090.5994444754</v>
       </c>
       <c r="AF4" t="n">
         <v>7.120784424538972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>341796.4469471133</v>
+        <v>474976.6896027788</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>262.6552140268586</v>
+        <v>370.2274627742052</v>
       </c>
       <c r="AB5" t="n">
-        <v>359.3764513617849</v>
+        <v>506.5615478505808</v>
       </c>
       <c r="AC5" t="n">
-        <v>325.0780672318328</v>
+        <v>458.2160246873182</v>
       </c>
       <c r="AD5" t="n">
-        <v>262655.2140268586</v>
+        <v>370227.4627742052</v>
       </c>
       <c r="AE5" t="n">
-        <v>359376.4513617849</v>
+        <v>506561.5478505808</v>
       </c>
       <c r="AF5" t="n">
         <v>7.321662760259023e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>325078.0672318328</v>
+        <v>458216.0246873182</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>249.7501778010271</v>
+        <v>357.3897463560812</v>
       </c>
       <c r="AB6" t="n">
-        <v>341.719211467424</v>
+        <v>488.996417887227</v>
       </c>
       <c r="AC6" t="n">
-        <v>309.1060095310005</v>
+        <v>442.3272860748522</v>
       </c>
       <c r="AD6" t="n">
-        <v>249750.1778010271</v>
+        <v>357389.7463560812</v>
       </c>
       <c r="AE6" t="n">
-        <v>341719.2114674241</v>
+        <v>488996.417887227</v>
       </c>
       <c r="AF6" t="n">
         <v>7.484330215437068e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.96354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>309106.0095310005</v>
+        <v>442327.2860748522</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>248.8983667971699</v>
+        <v>356.5379353522241</v>
       </c>
       <c r="AB7" t="n">
-        <v>340.5537260726981</v>
+        <v>487.8309324925004</v>
       </c>
       <c r="AC7" t="n">
-        <v>308.0517564265778</v>
+        <v>441.2730329704293</v>
       </c>
       <c r="AD7" t="n">
-        <v>248898.3667971699</v>
+        <v>356537.9353522241</v>
       </c>
       <c r="AE7" t="n">
-        <v>340553.7260726981</v>
+        <v>487830.9324925004</v>
       </c>
       <c r="AF7" t="n">
         <v>7.526096998111533e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>308051.7564265777</v>
+        <v>441273.0329704293</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.7070205180373</v>
+        <v>451.4868396617383</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.646714652399</v>
+        <v>617.7442122188016</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.1148176750656</v>
+        <v>558.7875716140856</v>
       </c>
       <c r="AD2" t="n">
-        <v>325707.0205180373</v>
+        <v>451486.8396617383</v>
       </c>
       <c r="AE2" t="n">
-        <v>445646.714652399</v>
+        <v>617744.2122188016</v>
       </c>
       <c r="AF2" t="n">
         <v>6.554368847307449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>403114.8176750656</v>
+        <v>558787.5716140856</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.8483513686728</v>
+        <v>376.2670722121576</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.2184192116781</v>
+        <v>514.8252079323507</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.9807314834207</v>
+        <v>465.6910126490039</v>
       </c>
       <c r="AD3" t="n">
-        <v>269848.3513686728</v>
+        <v>376267.0722121576</v>
       </c>
       <c r="AE3" t="n">
-        <v>369218.4192116781</v>
+        <v>514825.2079323507</v>
       </c>
       <c r="AF3" t="n">
         <v>7.78914098028848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>333980.7314834207</v>
+        <v>465691.0126490039</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.0930675450902</v>
+        <v>351.5449427775017</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.3471477580504</v>
+        <v>480.999299776479</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.3420866387998</v>
+        <v>435.0934016925682</v>
       </c>
       <c r="AD4" t="n">
-        <v>245093.0675450902</v>
+        <v>351544.9427775017</v>
       </c>
       <c r="AE4" t="n">
-        <v>335347.1477580504</v>
+        <v>480999.299776479</v>
       </c>
       <c r="AF4" t="n">
         <v>8.18244267870222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.98958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>303342.0866387998</v>
+        <v>435093.4016925683</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.940626638297</v>
+        <v>348.2910166442233</v>
       </c>
       <c r="AB5" t="n">
-        <v>331.0338390335008</v>
+        <v>476.547134487838</v>
       </c>
       <c r="AC5" t="n">
-        <v>299.4404340451531</v>
+        <v>431.0661448104219</v>
       </c>
       <c r="AD5" t="n">
-        <v>241940.626638297</v>
+        <v>348291.0166442233</v>
       </c>
       <c r="AE5" t="n">
-        <v>331033.8390335008</v>
+        <v>476547.134487838</v>
       </c>
       <c r="AF5" t="n">
         <v>8.391821097961714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>299440.4340451531</v>
+        <v>431066.1448104219</v>
       </c>
     </row>
     <row r="6">
@@ -3703,28 +3703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.8974622713197</v>
+        <v>338.6356339646994</v>
       </c>
       <c r="AB6" t="n">
-        <v>330.974779642325</v>
+        <v>463.3362139402929</v>
       </c>
       <c r="AC6" t="n">
-        <v>299.3870111993806</v>
+        <v>419.1160559782909</v>
       </c>
       <c r="AD6" t="n">
-        <v>241897.4622713197</v>
+        <v>338635.6339646994</v>
       </c>
       <c r="AE6" t="n">
-        <v>330974.779642325</v>
+        <v>463336.2139402928</v>
       </c>
       <c r="AF6" t="n">
         <v>8.396569206996889e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>299387.0111993806</v>
+        <v>419116.0559782909</v>
       </c>
     </row>
   </sheetData>
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.2550893292779</v>
+        <v>329.1312230474917</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.5721948902443</v>
+        <v>450.3318596183526</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.0270590973154</v>
+        <v>407.3528189811108</v>
       </c>
       <c r="AD2" t="n">
-        <v>226255.0893292779</v>
+        <v>329131.2230474917</v>
       </c>
       <c r="AE2" t="n">
-        <v>309572.1948902443</v>
+        <v>450331.8596183526</v>
       </c>
       <c r="AF2" t="n">
         <v>1.166253746178283e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>280027.0590973154</v>
+        <v>407352.8189811108</v>
       </c>
     </row>
     <row r="3">
@@ -4106,19 +4106,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.056745055481</v>
+        <v>317.8987133549138</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.250126218761</v>
+        <v>434.9630443136135</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.1673071551751</v>
+        <v>393.4507818387883</v>
       </c>
       <c r="AD3" t="n">
-        <v>215056.745055481</v>
+        <v>317898.7133549138</v>
       </c>
       <c r="AE3" t="n">
-        <v>294250.126218761</v>
+        <v>434963.0443136135</v>
       </c>
       <c r="AF3" t="n">
         <v>1.198304254407707e-05</v>
@@ -4127,7 +4127,7 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>266167.3071551751</v>
+        <v>393450.7818387883</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>259.1691379953118</v>
+        <v>363.4100896008752</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.6066483406025</v>
+        <v>497.233717113553</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.7634875165314</v>
+        <v>449.7784290241397</v>
       </c>
       <c r="AD2" t="n">
-        <v>259169.1379953118</v>
+        <v>363410.0896008752</v>
       </c>
       <c r="AE2" t="n">
-        <v>354606.6483406025</v>
+        <v>497233.717113553</v>
       </c>
       <c r="AF2" t="n">
         <v>9.267953802732768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>320763.4875165314</v>
+        <v>449778.4290241397</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.0656879813769</v>
+        <v>325.3056285570858</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.4718270258201</v>
+        <v>445.0975124632618</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.6043403764407</v>
+        <v>402.6180305720495</v>
       </c>
       <c r="AD3" t="n">
-        <v>221065.6879813769</v>
+        <v>325305.6285570858</v>
       </c>
       <c r="AE3" t="n">
-        <v>302471.82702582</v>
+        <v>445097.5124632617</v>
       </c>
       <c r="AF3" t="n">
         <v>1.039643646335554e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>273604.3403764407</v>
+        <v>402618.0305720495</v>
       </c>
     </row>
     <row r="4">
@@ -4615,19 +4615,19 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.297159757554</v>
+        <v>325.5371003332629</v>
       </c>
       <c r="AB4" t="n">
-        <v>302.7885369217994</v>
+        <v>445.4142223592413</v>
       </c>
       <c r="AC4" t="n">
-        <v>273.890823924453</v>
+        <v>402.9045141200619</v>
       </c>
       <c r="AD4" t="n">
-        <v>221297.159757554</v>
+        <v>325537.1003332629</v>
       </c>
       <c r="AE4" t="n">
-        <v>302788.5369217994</v>
+        <v>445414.2223592413</v>
       </c>
       <c r="AF4" t="n">
         <v>1.038256657687193e-05</v>
@@ -4636,7 +4636,7 @@
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>273890.823924453</v>
+        <v>402904.5141200619</v>
       </c>
     </row>
   </sheetData>
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.8136355306152</v>
+        <v>312.2587476346852</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.758713626033</v>
+        <v>427.2461943974699</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.0547241151589</v>
+        <v>386.4704172479745</v>
       </c>
       <c r="AD2" t="n">
-        <v>219813.6355306152</v>
+        <v>312258.7476346852</v>
       </c>
       <c r="AE2" t="n">
-        <v>300758.713626033</v>
+        <v>427246.1943974699</v>
       </c>
       <c r="AF2" t="n">
         <v>1.344629861269946e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>272054.724115159</v>
+        <v>386470.4172479745</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.0003118677785</v>
+        <v>466.8911482325724</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.889229400648</v>
+        <v>638.8210667955477</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.666116980675</v>
+        <v>577.8528807715783</v>
       </c>
       <c r="AD2" t="n">
-        <v>331000.3118677785</v>
+        <v>466891.1482325724</v>
       </c>
       <c r="AE2" t="n">
-        <v>452889.229400648</v>
+        <v>638821.0667955477</v>
       </c>
       <c r="AF2" t="n">
         <v>6.213977697008303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.97916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>409666.116980675</v>
+        <v>577852.8807715783</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.1888906696372</v>
+        <v>379.9197865490272</v>
       </c>
       <c r="AB3" t="n">
-        <v>373.7890924574504</v>
+        <v>519.8230128344391</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.1151860895966</v>
+        <v>470.2118340657001</v>
       </c>
       <c r="AD3" t="n">
-        <v>273188.8906696372</v>
+        <v>379919.7865490272</v>
       </c>
       <c r="AE3" t="n">
-        <v>373789.0924574503</v>
+        <v>519823.0128344391</v>
       </c>
       <c r="AF3" t="n">
         <v>7.473492112619642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>338115.1860895967</v>
+        <v>470211.8340657001</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>257.5914246861643</v>
+        <v>364.2881551467767</v>
       </c>
       <c r="AB4" t="n">
-        <v>352.4479513870613</v>
+        <v>498.4351251309733</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.810813570592</v>
+        <v>450.8651763465642</v>
       </c>
       <c r="AD4" t="n">
-        <v>257591.4246861642</v>
+        <v>364288.1551467766</v>
       </c>
       <c r="AE4" t="n">
-        <v>352447.9513870613</v>
+        <v>498435.1251309733</v>
       </c>
       <c r="AF4" t="n">
         <v>7.910061997940883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>318810.813570592</v>
+        <v>450865.1763465642</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.3713640893558</v>
+        <v>351.1354143576725</v>
       </c>
       <c r="AB5" t="n">
-        <v>334.3596812506056</v>
+        <v>480.4389649253499</v>
       </c>
       <c r="AC5" t="n">
-        <v>302.4488625489074</v>
+        <v>434.586544413196</v>
       </c>
       <c r="AD5" t="n">
-        <v>244371.3640893557</v>
+        <v>351135.4143576724</v>
       </c>
       <c r="AE5" t="n">
-        <v>334359.6812506056</v>
+        <v>480438.9649253499</v>
       </c>
       <c r="AF5" t="n">
         <v>8.121654241887852e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>302448.8625489073</v>
+        <v>434586.544413196</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>243.4848409000674</v>
+        <v>350.1474059418989</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.1467011123792</v>
+        <v>479.0871282230335</v>
       </c>
       <c r="AC6" t="n">
-        <v>301.3516475326444</v>
+        <v>433.3637251084339</v>
       </c>
       <c r="AD6" t="n">
-        <v>243484.8409000674</v>
+        <v>350147.4059418989</v>
       </c>
       <c r="AE6" t="n">
-        <v>333146.7011123791</v>
+        <v>479087.1282230334</v>
       </c>
       <c r="AF6" t="n">
         <v>8.18188853031071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>301351.6475326444</v>
+        <v>433363.7251084339</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.1772863361499</v>
+        <v>318.2278229117853</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.1515443506495</v>
+        <v>435.4133465286141</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.791818012723</v>
+        <v>393.8581078423923</v>
       </c>
       <c r="AD2" t="n">
-        <v>217177.2863361499</v>
+        <v>318227.8229117853</v>
       </c>
       <c r="AE2" t="n">
-        <v>297151.5443506495</v>
+        <v>435413.3465286141</v>
       </c>
       <c r="AF2" t="n">
         <v>1.44515603033269e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>268791.818012723</v>
+        <v>393858.1078423923</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.4497871531606</v>
+        <v>407.4437927485727</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.1427007569889</v>
+        <v>557.4825723901116</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.9536430005488</v>
+        <v>504.2772181129031</v>
       </c>
       <c r="AD2" t="n">
-        <v>292449.7871531605</v>
+        <v>407443.7927485727</v>
       </c>
       <c r="AE2" t="n">
-        <v>400142.7007569888</v>
+        <v>557482.5723901116</v>
       </c>
       <c r="AF2" t="n">
         <v>7.674244254739789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>361953.6430005488</v>
+        <v>504277.2181129031</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.4574882744153</v>
+        <v>346.3087717214253</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.6869848614492</v>
+        <v>473.8349395339918</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.9814199905787</v>
+        <v>428.6127979363812</v>
       </c>
       <c r="AD3" t="n">
-        <v>250457.4882744153</v>
+        <v>346308.7717214253</v>
       </c>
       <c r="AE3" t="n">
-        <v>342686.9848614492</v>
+        <v>473834.9395339918</v>
       </c>
       <c r="AF3" t="n">
         <v>8.886238764220195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>309981.4199905787</v>
+        <v>428612.7979363812</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.5682681803804</v>
+        <v>332.3853862086094</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.6831411796553</v>
+        <v>454.7843492189403</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.791276477707</v>
+        <v>411.3803692233269</v>
       </c>
       <c r="AD4" t="n">
-        <v>236568.2681803804</v>
+        <v>332385.3862086094</v>
       </c>
       <c r="AE4" t="n">
-        <v>323683.1411796553</v>
+        <v>454784.3492189404</v>
       </c>
       <c r="AF4" t="n">
         <v>9.245921905833834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>292791.276477707</v>
+        <v>411380.3692233269</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.6887013116097</v>
+        <v>332.5058193398387</v>
       </c>
       <c r="AB5" t="n">
-        <v>323.8479231029377</v>
+        <v>454.9491311422229</v>
       </c>
       <c r="AC5" t="n">
-        <v>292.9403318455044</v>
+        <v>411.5294245911242</v>
       </c>
       <c r="AD5" t="n">
-        <v>236688.7013116096</v>
+        <v>332505.8193398387</v>
       </c>
       <c r="AE5" t="n">
-        <v>323847.9231029378</v>
+        <v>454949.1311422229</v>
       </c>
       <c r="AF5" t="n">
         <v>9.245276541345293e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>292940.3318455043</v>
+        <v>411529.4245911242</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.4309220312676</v>
+        <v>436.895097665857</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.1135268857859</v>
+        <v>597.7791470778128</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.4458499338968</v>
+        <v>540.7279442690079</v>
       </c>
       <c r="AD2" t="n">
-        <v>311430.9220312677</v>
+        <v>436895.0976658569</v>
       </c>
       <c r="AE2" t="n">
-        <v>426113.5268857859</v>
+        <v>597779.1470778128</v>
       </c>
       <c r="AF2" t="n">
         <v>6.882642968511524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>385445.8499338968</v>
+        <v>540727.9442690079</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.0574480360886</v>
+        <v>363.2194428038212</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.717340977041</v>
+        <v>496.9728657550806</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.1499315926857</v>
+        <v>449.5424729532129</v>
       </c>
       <c r="AD3" t="n">
-        <v>257057.4480360886</v>
+        <v>363219.4428038212</v>
       </c>
       <c r="AE3" t="n">
-        <v>351717.3409770411</v>
+        <v>496972.8657550807</v>
       </c>
       <c r="AF3" t="n">
         <v>8.113837779962705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>318149.9315926857</v>
+        <v>449542.4729532129</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.8409913091216</v>
+        <v>347.9688206580732</v>
       </c>
       <c r="AB4" t="n">
-        <v>330.8975135805225</v>
+        <v>476.1062917253037</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.317119302073</v>
+        <v>430.6673754624172</v>
       </c>
       <c r="AD4" t="n">
-        <v>241840.9913091216</v>
+        <v>347968.8206580732</v>
       </c>
       <c r="AE4" t="n">
-        <v>330897.5135805225</v>
+        <v>476106.2917253037</v>
       </c>
       <c r="AF4" t="n">
         <v>8.540457950197821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>299317.119302073</v>
+        <v>430667.3754624172</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.9001329782775</v>
+        <v>336.3437175048755</v>
       </c>
       <c r="AB5" t="n">
-        <v>328.2419455876365</v>
+        <v>460.2003127277436</v>
       </c>
       <c r="AC5" t="n">
-        <v>296.914994991314</v>
+        <v>416.2794407762024</v>
       </c>
       <c r="AD5" t="n">
-        <v>239900.1329782775</v>
+        <v>336343.7175048755</v>
       </c>
       <c r="AE5" t="n">
-        <v>328241.9455876364</v>
+        <v>460200.3127277436</v>
       </c>
       <c r="AF5" t="n">
         <v>8.691193015898852e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>296914.994991314</v>
+        <v>416279.4407762024</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.912400381276</v>
+        <v>508.3207596140631</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.1845126499122</v>
+        <v>695.5068888331617</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.9247977584324</v>
+        <v>629.1286875129733</v>
       </c>
       <c r="AD2" t="n">
-        <v>361912.400381276</v>
+        <v>508320.7596140631</v>
       </c>
       <c r="AE2" t="n">
-        <v>495184.5126499122</v>
+        <v>695506.8888331617</v>
       </c>
       <c r="AF2" t="n">
         <v>5.616412591791158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>447924.7977584324</v>
+        <v>629128.6875129733</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.3324857251238</v>
+        <v>407.3850202198929</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.2457155344023</v>
+        <v>557.4021572235109</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.3331419816617</v>
+        <v>504.2044776569394</v>
       </c>
       <c r="AD3" t="n">
-        <v>290332.4857251238</v>
+        <v>407385.0202198928</v>
       </c>
       <c r="AE3" t="n">
-        <v>397245.7155344023</v>
+        <v>557402.1572235109</v>
       </c>
       <c r="AF3" t="n">
         <v>6.856908804138896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>359333.1419816617</v>
+        <v>504204.4776569394</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>263.998861999955</v>
+        <v>381.0845508836476</v>
       </c>
       <c r="AB4" t="n">
-        <v>361.2148897961404</v>
+        <v>521.4166947828427</v>
       </c>
       <c r="AC4" t="n">
-        <v>326.741047682278</v>
+        <v>471.6534172456948</v>
       </c>
       <c r="AD4" t="n">
-        <v>263998.861999955</v>
+        <v>381084.5508836476</v>
       </c>
       <c r="AE4" t="n">
-        <v>361214.8897961404</v>
+        <v>521416.6947828426</v>
       </c>
       <c r="AF4" t="n">
         <v>7.324471460635621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>326741.047682278</v>
+        <v>471653.4172456947</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.7428463300091</v>
+        <v>357.3380417087973</v>
       </c>
       <c r="AB5" t="n">
-        <v>355.3916213943606</v>
+        <v>488.9256733077651</v>
       </c>
       <c r="AC5" t="n">
-        <v>321.4735438437555</v>
+        <v>442.2632932587635</v>
       </c>
       <c r="AD5" t="n">
-        <v>259742.8463300091</v>
+        <v>357338.0417087973</v>
       </c>
       <c r="AE5" t="n">
-        <v>355391.6213943606</v>
+        <v>488925.6733077651</v>
       </c>
       <c r="AF5" t="n">
         <v>7.588925243715358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>321473.5438437555</v>
+        <v>442263.2932587635</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>246.8560013820583</v>
+        <v>354.2130207077637</v>
       </c>
       <c r="AB6" t="n">
-        <v>337.7592716089407</v>
+        <v>484.6498817079544</v>
       </c>
       <c r="AC6" t="n">
-        <v>305.524000774799</v>
+        <v>438.3955772081276</v>
       </c>
       <c r="AD6" t="n">
-        <v>246856.0013820583</v>
+        <v>354213.0207077637</v>
       </c>
       <c r="AE6" t="n">
-        <v>337759.2716089407</v>
+        <v>484649.8817079544</v>
       </c>
       <c r="AF6" t="n">
         <v>7.750132528887279e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>305524.000774799</v>
+        <v>438395.5772081276</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>247.0273749497062</v>
+        <v>354.3843942754116</v>
       </c>
       <c r="AB7" t="n">
-        <v>337.9937524846647</v>
+        <v>484.8843625836785</v>
       </c>
       <c r="AC7" t="n">
-        <v>305.7361031248399</v>
+        <v>438.6076795581685</v>
       </c>
       <c r="AD7" t="n">
-        <v>247027.3749497062</v>
+        <v>354384.3942754116</v>
       </c>
       <c r="AE7" t="n">
-        <v>337993.7524846647</v>
+        <v>484884.3625836784</v>
       </c>
       <c r="AF7" t="n">
         <v>7.745271698532856e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>305736.10312484</v>
+        <v>438607.6795581685</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.4662080467355</v>
+        <v>377.6689464984274</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.4860891583115</v>
+        <v>516.7433141771536</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.0818027544452</v>
+        <v>467.4260575258818</v>
       </c>
       <c r="AD2" t="n">
-        <v>263466.2080467354</v>
+        <v>377668.9464984274</v>
       </c>
       <c r="AE2" t="n">
-        <v>360486.0891583115</v>
+        <v>516743.3141771536</v>
       </c>
       <c r="AF2" t="n">
         <v>8.703633063538063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.94270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>326081.8027544452</v>
+        <v>467426.0575258818</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.9633670228718</v>
+        <v>329.0934671072309</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.1190004958253</v>
+        <v>450.2802002752132</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.5672923784377</v>
+        <v>407.3060899331762</v>
       </c>
       <c r="AD3" t="n">
-        <v>233963.3670228717</v>
+        <v>329093.4671072309</v>
       </c>
       <c r="AE3" t="n">
-        <v>320119.0004958253</v>
+        <v>450280.2002752132</v>
       </c>
       <c r="AF3" t="n">
         <v>9.84562630436327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>289567.2923784377</v>
+        <v>407306.0899331762</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.9156603343989</v>
+        <v>328.0457604187581</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.6854819831005</v>
+        <v>448.8466817624877</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.2705868606111</v>
+        <v>406.0093844153494</v>
       </c>
       <c r="AD4" t="n">
-        <v>232915.6603343989</v>
+        <v>328045.760418758</v>
       </c>
       <c r="AE4" t="n">
-        <v>318685.4819831005</v>
+        <v>448846.6817624877</v>
       </c>
       <c r="AF4" t="n">
         <v>9.945266902148868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>288270.5868606111</v>
+        <v>406009.3844153494</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.0790679682374</v>
+        <v>334.0552472657849</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.4867723349541</v>
+        <v>457.0691267864383</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.1364558174843</v>
+        <v>413.4470908264882</v>
       </c>
       <c r="AD2" t="n">
-        <v>240079.0679682374</v>
+        <v>334055.2472657849</v>
       </c>
       <c r="AE2" t="n">
-        <v>328486.7723349541</v>
+        <v>457069.1267864383</v>
       </c>
       <c r="AF2" t="n">
         <v>1.079263970119105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>297136.4558174843</v>
+        <v>413447.0908264883</v>
       </c>
     </row>
     <row r="3">
@@ -8899,19 +8899,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.2273788190169</v>
+        <v>320.5693150365729</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.2200830956324</v>
+        <v>438.6170793530905</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.8538155160795</v>
+        <v>396.756080902568</v>
       </c>
       <c r="AD3" t="n">
-        <v>217227.3788190169</v>
+        <v>320569.3150365729</v>
       </c>
       <c r="AE3" t="n">
-        <v>297220.0830956324</v>
+        <v>438617.0793530905</v>
       </c>
       <c r="AF3" t="n">
         <v>1.135633993303658e-05</v>
@@ -8920,7 +8920,7 @@
         <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>268853.8155160795</v>
+        <v>396756.0809025681</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.1163061936148</v>
+        <v>315.1086605624362</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.9093292138075</v>
+        <v>431.1455709945036</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.904649373154</v>
+        <v>389.9976428153968</v>
       </c>
       <c r="AD2" t="n">
-        <v>222116.3061936148</v>
+        <v>315108.6605624362</v>
       </c>
       <c r="AE2" t="n">
-        <v>303909.3292138075</v>
+        <v>431145.5709945036</v>
       </c>
       <c r="AF2" t="n">
         <v>1.265021865356754e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>274904.649373154</v>
+        <v>389997.6428153968</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.4358017239127</v>
+        <v>315.4281560927341</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.3464770935089</v>
+        <v>431.5827188742052</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.3000764727577</v>
+        <v>390.3930699150006</v>
       </c>
       <c r="AD3" t="n">
-        <v>222435.8017239127</v>
+        <v>315428.1560927341</v>
       </c>
       <c r="AE3" t="n">
-        <v>304346.4770935089</v>
+        <v>431582.7188742053</v>
       </c>
       <c r="AF3" t="n">
         <v>1.262308613454256e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>275300.0764727577</v>
+        <v>390393.0699150006</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.4163815734353</v>
+        <v>323.7112515475164</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.6881497037548</v>
+        <v>442.9160154998196</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.5137017321316</v>
+        <v>400.6447326170481</v>
       </c>
       <c r="AD2" t="n">
-        <v>223416.3815734353</v>
+        <v>323711.2515475164</v>
       </c>
       <c r="AE2" t="n">
-        <v>305688.1497037548</v>
+        <v>442916.0154998196</v>
       </c>
       <c r="AF2" t="n">
         <v>1.565244686034566e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>276513.7017321316</v>
+        <v>400644.7326170481</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.418325885602</v>
+        <v>421.4498179656447</v>
       </c>
       <c r="AB2" t="n">
-        <v>405.5726305302877</v>
+        <v>576.6462339943329</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.8653478972382</v>
+        <v>521.6119267499854</v>
       </c>
       <c r="AD2" t="n">
-        <v>296418.325885602</v>
+        <v>421449.8179656447</v>
       </c>
       <c r="AE2" t="n">
-        <v>405572.6305302877</v>
+        <v>576646.2339943328</v>
       </c>
       <c r="AF2" t="n">
         <v>7.298326173242788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>366865.3478972382</v>
+        <v>521611.9267499854</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.8176965019758</v>
+        <v>359.5409983898829</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.2845700003197</v>
+        <v>491.9398558264158</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.1402180565481</v>
+        <v>444.989806428266</v>
       </c>
       <c r="AD3" t="n">
-        <v>253817.6965019758</v>
+        <v>359540.9983898829</v>
       </c>
       <c r="AE3" t="n">
-        <v>347284.5700003197</v>
+        <v>491939.8558264158</v>
       </c>
       <c r="AF3" t="n">
         <v>8.471773531894109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>314140.2180565481</v>
+        <v>444989.806428266</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.9592690994134</v>
+        <v>335.096301213884</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.9546141205905</v>
+        <v>458.4935427262861</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.7505246327015</v>
+        <v>414.7355625082174</v>
       </c>
       <c r="AD4" t="n">
-        <v>238959.2690994134</v>
+        <v>335096.301213884</v>
       </c>
       <c r="AE4" t="n">
-        <v>326954.6141205905</v>
+        <v>458493.5427262862</v>
       </c>
       <c r="AF4" t="n">
         <v>8.902847189416573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.36458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>295750.5246327015</v>
+        <v>414735.5625082174</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.3984453574845</v>
+        <v>334.5354774719551</v>
       </c>
       <c r="AB5" t="n">
-        <v>326.1872703350865</v>
+        <v>457.7261989407817</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.056415061112</v>
+        <v>414.0414529366277</v>
       </c>
       <c r="AD5" t="n">
-        <v>238398.4453574845</v>
+        <v>334535.4774719551</v>
       </c>
       <c r="AE5" t="n">
-        <v>326187.2703350865</v>
+        <v>457726.1989407817</v>
       </c>
       <c r="AF5" t="n">
         <v>8.943490879438066e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>295056.415061112</v>
+        <v>414041.4529366277</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.1162674479595</v>
+        <v>482.4248705493985</v>
       </c>
       <c r="AB2" t="n">
-        <v>473.5715466943467</v>
+        <v>660.0749909688919</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.3745429396778</v>
+        <v>597.0783602518884</v>
       </c>
       <c r="AD2" t="n">
-        <v>346116.2674479595</v>
+        <v>482424.8705493985</v>
       </c>
       <c r="AE2" t="n">
-        <v>473571.5466943467</v>
+        <v>660074.9909688919</v>
       </c>
       <c r="AF2" t="n">
         <v>5.915761498947867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.68229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>428374.5429396778</v>
+        <v>597078.3602518884</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.9695526544485</v>
+        <v>393.7713327511868</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.9619609761044</v>
+        <v>538.7753094353239</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.7943632969969</v>
+        <v>487.3553500787119</v>
       </c>
       <c r="AD3" t="n">
-        <v>276969.5526544485</v>
+        <v>393771.3327511868</v>
       </c>
       <c r="AE3" t="n">
-        <v>378961.9609761044</v>
+        <v>538775.3094353239</v>
       </c>
       <c r="AF3" t="n">
         <v>7.139840094657706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>342794.363296997</v>
+        <v>487355.3500787119</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>260.7337354211458</v>
+        <v>367.833352143705</v>
       </c>
       <c r="AB4" t="n">
-        <v>356.7473995637955</v>
+        <v>503.2858200652238</v>
       </c>
       <c r="AC4" t="n">
-        <v>322.6999284475461</v>
+        <v>455.252927764283</v>
       </c>
       <c r="AD4" t="n">
-        <v>260733.7354211458</v>
+        <v>367833.352143705</v>
       </c>
       <c r="AE4" t="n">
-        <v>356747.3995637955</v>
+        <v>503285.8200652238</v>
       </c>
       <c r="AF4" t="n">
         <v>7.612303618396109e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>322699.9284475461</v>
+        <v>455252.927764283</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>246.4955924378138</v>
+        <v>353.5610437415953</v>
       </c>
       <c r="AB5" t="n">
-        <v>337.2661441913052</v>
+        <v>483.757818059649</v>
       </c>
       <c r="AC5" t="n">
-        <v>305.0779367457939</v>
+        <v>437.5886508623973</v>
       </c>
       <c r="AD5" t="n">
-        <v>246495.5924378138</v>
+        <v>353561.0437415952</v>
       </c>
       <c r="AE5" t="n">
-        <v>337266.1441913052</v>
+        <v>483757.818059649</v>
       </c>
       <c r="AF5" t="n">
         <v>7.898624185889913e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>305077.9367457938</v>
+        <v>437588.6508623973</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>245.3431876816864</v>
+        <v>352.4086389854678</v>
       </c>
       <c r="AB6" t="n">
-        <v>335.6893731634628</v>
+        <v>482.1810470318057</v>
       </c>
       <c r="AC6" t="n">
-        <v>303.6516505318361</v>
+        <v>436.1623646484393</v>
       </c>
       <c r="AD6" t="n">
-        <v>245343.1876816864</v>
+        <v>352408.6389854678</v>
       </c>
       <c r="AE6" t="n">
-        <v>335689.3731634628</v>
+        <v>482181.0470318057</v>
       </c>
       <c r="AF6" t="n">
         <v>7.925413678917008e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.65104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>303651.6505318361</v>
+        <v>436162.3646484393</v>
       </c>
     </row>
     <row r="7">
@@ -17318,28 +17318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>245.5104179037751</v>
+        <v>352.5758692075565</v>
       </c>
       <c r="AB7" t="n">
-        <v>335.9181849310012</v>
+        <v>482.4098587993443</v>
       </c>
       <c r="AC7" t="n">
-        <v>303.8586248254201</v>
+        <v>436.3693389420233</v>
       </c>
       <c r="AD7" t="n">
-        <v>245510.4179037751</v>
+        <v>352575.8692075565</v>
       </c>
       <c r="AE7" t="n">
-        <v>335918.1849310012</v>
+        <v>482409.8587993443</v>
       </c>
       <c r="AF7" t="n">
         <v>7.922961119696218e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>303858.6248254201</v>
+        <v>436369.3389420233</v>
       </c>
     </row>
   </sheetData>
@@ -17615,28 +17615,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.2094484181439</v>
+        <v>346.4639954845074</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.9286763847242</v>
+        <v>474.0473235346299</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.8225009544333</v>
+        <v>428.8049123060813</v>
       </c>
       <c r="AD2" t="n">
-        <v>238209.4484181439</v>
+        <v>346463.9954845074</v>
       </c>
       <c r="AE2" t="n">
-        <v>325928.6763847242</v>
+        <v>474047.3235346299</v>
       </c>
       <c r="AF2" t="n">
         <v>1.693483431540073e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>294822.5009544333</v>
+        <v>428804.9123060813</v>
       </c>
     </row>
   </sheetData>
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.9977741544694</v>
+        <v>348.8719606201323</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.2167631369553</v>
+        <v>477.3420076651161</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.2241457429461</v>
+        <v>431.785156407272</v>
       </c>
       <c r="AD2" t="n">
-        <v>244997.7741544694</v>
+        <v>348871.9606201323</v>
       </c>
       <c r="AE2" t="n">
-        <v>335216.7631369553</v>
+        <v>477342.007665116</v>
       </c>
       <c r="AF2" t="n">
         <v>9.950864228048721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>303224.1457429461</v>
+        <v>431785.156407272</v>
       </c>
     </row>
     <row r="3">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.89409227209</v>
+        <v>323.2578510695337</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.1829951411909</v>
+        <v>442.2956529632262</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.2932496401028</v>
+        <v>400.0835766102628</v>
       </c>
       <c r="AD3" t="n">
-        <v>228894.09227209</v>
+        <v>323257.8510695337</v>
       </c>
       <c r="AE3" t="n">
-        <v>313182.9951411909</v>
+        <v>442295.6529632262</v>
       </c>
       <c r="AF3" t="n">
         <v>1.081378092354613e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>283293.2496401028</v>
+        <v>400083.5766102628</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.7530256987575</v>
+        <v>392.4124010882238</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.0339433597192</v>
+        <v>536.9159591822241</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.7640371864563</v>
+        <v>485.6734536041535</v>
       </c>
       <c r="AD2" t="n">
-        <v>277753.0256987575</v>
+        <v>392412.4010882237</v>
       </c>
       <c r="AE2" t="n">
-        <v>380033.9433597192</v>
+        <v>536915.9591822241</v>
       </c>
       <c r="AF2" t="n">
         <v>8.171646748940841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>343764.0371864563</v>
+        <v>485673.4536041535</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.5616788219926</v>
+        <v>342.6319408435589</v>
       </c>
       <c r="AB3" t="n">
-        <v>325.0423694456929</v>
+        <v>468.8041373165648</v>
       </c>
       <c r="AC3" t="n">
-        <v>294.0207819057233</v>
+        <v>424.0621284218103</v>
       </c>
       <c r="AD3" t="n">
-        <v>237561.6788219927</v>
+        <v>342631.9408435589</v>
       </c>
       <c r="AE3" t="n">
-        <v>325042.3694456929</v>
+        <v>468804.1373165648</v>
       </c>
       <c r="AF3" t="n">
         <v>9.304396454618396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>294020.7819057233</v>
+        <v>424062.1284218103</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.6509072751288</v>
+        <v>330.1330669586493</v>
       </c>
       <c r="AB4" t="n">
-        <v>321.0597234010983</v>
+        <v>451.7026266558323</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.4182340099446</v>
+        <v>408.5927619364172</v>
       </c>
       <c r="AD4" t="n">
-        <v>234650.9072751288</v>
+        <v>330133.0669586493</v>
       </c>
       <c r="AE4" t="n">
-        <v>321059.7234010983</v>
+        <v>451702.6266558323</v>
       </c>
       <c r="AF4" t="n">
         <v>9.578789240465756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>290418.2340099446</v>
+        <v>408592.7619364171</v>
       </c>
     </row>
   </sheetData>
